--- a/itour-parent/time.xlsx
+++ b/itour-parent/time.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9F7FB-93F5-41B1-8033-657B8169FFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4934D42C-4543-47DD-A1FD-72B6DA7261AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,165 +22,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
-  <si>
-    <t>个人博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台 页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客添加、修改页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息修改页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8个页面一周一个2个月时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本框架搭建2周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发3个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线1个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总时间：8个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-3-24-2020-5-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-3-15-2020-6-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-6-8-2020-10-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-10-9-2020-11-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-10-10-2020-11-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集旅游攻略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-3-24-2020-4-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-26发表第一篇旅游攻略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海旅游攻略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关景点介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱|用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>person.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮出框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writer.html/writer-update.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册页面</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>1.首页攻略设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.首页vlog设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.头部分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.vlog详情页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.攻略详情设计调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1上海旅行攻略编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.完成首页列表和详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/8/9-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.redis集成到项目中并应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行攻略模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的博客页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台样式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台首页设计及完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台搜索样式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站推荐页面设计及完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,176 +459,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="38.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C8" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    </row>
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,46 +558,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4569AE65-7841-489D-888F-B010EBB05B1C}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.4140625" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-    </row>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/itour-parent/time.xlsx
+++ b/itour-parent/time.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4934D42C-4543-47DD-A1FD-72B6DA7261AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\itour\itour-parent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B0BA4-B130-48F8-B9E2-E22878F5AC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>1.首页攻略设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +137,10 @@
   </si>
   <si>
     <t>网站推荐页面设计及完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,9 +184,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,55 +468,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="38.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>44048</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>44048</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>44048</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>44049</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -515,7 +535,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -523,8 +543,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -532,8 +551,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -541,14 +559,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,24 +568,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4569AE65-7841-489D-888F-B010EBB05B1C}">
-  <dimension ref="A1:B20"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.4140625" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -583,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -591,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -599,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -607,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -615,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -623,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -631,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -639,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -647,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -655,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -663,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -671,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -679,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -687,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -695,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -703,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -719,7 +730,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/itour-parent/time.xlsx
+++ b/itour-parent/time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\itour\itour-parent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B0BA4-B130-48F8-B9E2-E22878F5AC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5D3A7-8E27-4E3C-A087-1AE5A26BC44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>1.首页攻略设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,95 +52,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>7.redis集成到项目中并应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行攻略模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的博客页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台样式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台首页设计及完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台搜索样式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站推荐页面设计及完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.广告数据结果设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/8/8-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6.完成首页列表和详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/8/9-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.redis集成到项目中并应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行攻略模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的博客页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景点信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台样式调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台首页设计及完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台搜索样式调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站推荐页面设计及完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,7 +495,7 @@
         <v>44048</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -502,7 +506,7 @@
         <v>44048</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -513,7 +517,7 @@
         <v>44048</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -521,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -532,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -540,23 +544,34 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
         <v>44050</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44051</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -583,12 +598,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -596,7 +611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -604,7 +619,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -612,7 +627,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -620,7 +635,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -628,7 +643,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -636,7 +651,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -644,7 +659,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -652,7 +667,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -660,7 +675,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -668,7 +683,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -676,7 +691,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -684,7 +699,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -692,7 +707,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -700,7 +715,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -708,7 +723,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -716,7 +731,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -724,7 +739,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>5</v>

--- a/itour-parent/time.xlsx
+++ b/itour-parent/time.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\itour\itour-parent\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5D3A7-8E27-4E3C-A087-1AE5A26BC44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6B1EB2A2-E138-492E-BA13-75FF486FFBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>1.首页攻略设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +142,26 @@
   </si>
   <si>
     <t>6.完成首页列表和详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML+CSS 列表编写学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4D学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +492,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -750,4 +767,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF29BAA-25B0-4671-8F79-0640C84C0DF3}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/itour-parent/time.xlsx
+++ b/itour-parent/time.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6B1EB2A2-E138-492E-BA13-75FF486FFBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A15192C9-D300-44E3-BF0A-F97E1FD44457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="stu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:M25"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>1.首页攻略设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +163,30 @@
   </si>
   <si>
     <t>英文学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:20~7:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00~6:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+吃早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目相关学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,10 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -773,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF29BAA-25B0-4671-8F79-0640C84C0DF3}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -812,4 +838,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB0CA4D-3438-4E0D-BD0C-D358CD0BBFF7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>